--- a/BalanceSheet/BAX_bal.xlsx
+++ b/BalanceSheet/BAX_bal.xlsx
@@ -507,19 +507,19 @@
         <v>2017000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>143000000.0</v>
+        <v>1916000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-44000000.0</v>
+        <v>1988000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-178000000.0</v>
+        <v>1905000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-83000000.0</v>
+        <v>1694000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>92000000.0</v>
+        <v>1653000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1715000000.0</v>
@@ -1770,19 +1770,19 @@
         <v>1023000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>107000000.0</v>
+        <v>2695000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>84000000.0</v>
+        <v>2635000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>62000000.0</v>
+        <v>2518000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-110000000.0</v>
+        <v>2444000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>37000000.0</v>
+        <v>2499000000.0</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>2609000000.0</v>
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-43000000.0</v>
+        <v>-605000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>-22000000.0</v>
@@ -3058,7 +3058,7 @@
         <v>-17000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>-265000000.0</v>
+        <v>-429000000.0</v>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
@@ -4761,10 +4761,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B34" s="0" t="n">
+        <v>2906000000.0</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>3068000000.0</v>
@@ -4890,10 +4888,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B35" s="0" t="n">
+        <v>6088000000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>6804000000.0</v>
